--- a/dashboard_llms/output/universal/gpt-3.5-turbo/score/new_score_comparison.xlsx
+++ b/dashboard_llms/output/universal/gpt-3.5-turbo/score/new_score_comparison.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>score_equal_weights</t>
+          <t>score_paper</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>score_paper</t>
+          <t>score_groundtruth_qm</t>
         </is>
       </c>
     </row>
@@ -478,17 +478,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>createAddress</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.6784710636465879</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="F2" t="n">
-        <v>0.89</v>
+        <v>0.007080884352209908</v>
       </c>
     </row>
     <row r="3">
@@ -511,10 +511,10 @@
         <v>0.2947201636327623</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1643835616438356</v>
+        <v>0.89</v>
       </c>
       <c r="F3" t="n">
-        <v>0.89</v>
+        <v>0.3044851262843078</v>
       </c>
     </row>
     <row r="4">
@@ -530,17 +530,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>getCOID</t>
+          <t>createAddress</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0271613143580073</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.89</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="5">
@@ -556,17 +556,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>insertCostumer</t>
+          <t>getCOID</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.007092047074358675</v>
+        <v>0.0271613143580073</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1232876712328767</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="6">
@@ -582,17 +582,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>insertCostumer</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6784710636465879</v>
+        <v>0.007092047074358675</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1914893617021277</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.53</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="7">
@@ -608,17 +608,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>createAddress</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.005150474672549961</v>
+        <v>0.006637496877317059</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="F7" t="n">
-        <v>0.89</v>
+        <v>0.007080884352209908</v>
       </c>
     </row>
     <row r="8">
@@ -641,10 +641,10 @@
         <v>0.004720927622391452</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.48</v>
       </c>
       <c r="F8" t="n">
-        <v>0.48</v>
+        <v>0.01730972989451714</v>
       </c>
     </row>
     <row r="9">
@@ -660,17 +660,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>getCOID</t>
+          <t>createAddress</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.0271613143580073</v>
+        <v>0.005150474672549961</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.89</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="10">
@@ -686,17 +686,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>insertCostumer</t>
+          <t>getCOID</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2947201636327623</v>
+        <v>0.0271613143580073</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1643835616438356</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="11">
@@ -712,17 +712,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>insertCostumer</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.006637496877317059</v>
+        <v>0.2947201636327623</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08571428571428572</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.53</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="12">
@@ -738,17 +738,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>createAddress</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.004735835819938897</v>
+        <v>0.01113837749484321</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.53</v>
       </c>
       <c r="F12" t="n">
-        <v>0.48</v>
+        <v>0.007080884352209908</v>
       </c>
     </row>
     <row r="13">
@@ -771,10 +771,10 @@
         <v>0.2947201636327623</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1643835616438356</v>
+        <v>0.89</v>
       </c>
       <c r="F13" t="n">
-        <v>0.89</v>
+        <v>0.3044851262843078</v>
       </c>
     </row>
     <row r="14">
@@ -790,17 +790,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>getCOID</t>
+          <t>createAddress</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.0271613143580073</v>
+        <v>0.004735835819938897</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.48</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.004720927622391452</v>
       </c>
     </row>
     <row r="15">
@@ -816,17 +816,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>insertCostumer</t>
+          <t>getCOID</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2947201636327623</v>
+        <v>0.0271613143580073</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1643835616438356</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="16">
@@ -842,17 +842,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>insertCostumer</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.01113837749484321</v>
+        <v>0.2947201636327623</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1578947368421053</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.53</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="17">
@@ -868,17 +868,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>createAddress</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.03862566573541859</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="F17" t="n">
-        <v>0.89</v>
+        <v>0.007080884352209908</v>
       </c>
     </row>
     <row r="18">
@@ -901,10 +901,10 @@
         <v>0.2947201636327623</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1643835616438356</v>
+        <v>0.89</v>
       </c>
       <c r="F18" t="n">
-        <v>0.89</v>
+        <v>0.3044851262843078</v>
       </c>
     </row>
     <row r="19">
@@ -920,17 +920,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>getCOID</t>
+          <t>createAddress</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.005592079696887063</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1132075471698113</v>
+        <v>0.89</v>
       </c>
       <c r="F19" t="n">
-        <v>0.48</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="20">
@@ -946,17 +946,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>insertCostumer</t>
+          <t>getCOID</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.1615446838458687</v>
+        <v>0.005592079696887063</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3972602739726027</v>
+        <v>0.48</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0.004720927622391452</v>
       </c>
     </row>
     <row r="21">
@@ -972,17 +972,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>insertCostumer</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.03862566573541859</v>
+        <v>0.1615446838458687</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2045454545454545</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.53</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="22">
@@ -998,17 +998,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>createAddress</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.007114478438037826</v>
+        <v>0.007426116762889592</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1343283582089552</v>
+        <v>0.53</v>
       </c>
       <c r="F22" t="n">
-        <v>0.89</v>
+        <v>0.007080884352209908</v>
       </c>
     </row>
     <row r="23">
@@ -1031,10 +1031,10 @@
         <v>0.2942562807420006</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.89</v>
       </c>
       <c r="F23" t="n">
-        <v>0.89</v>
+        <v>0.3044851262843078</v>
       </c>
     </row>
     <row r="24">
@@ -1050,17 +1050,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>getCOID</t>
+          <t>createAddress</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.06528370945976959</v>
+        <v>0.007114478438037826</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2807017543859649</v>
+        <v>0.89</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="25">
@@ -1076,17 +1076,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>insertCostumer</t>
+          <t>getCOID</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.004728369970085883</v>
+        <v>0.06528370945976959</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08333333333333333</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.48</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="26">
@@ -1102,17 +1102,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>insertCostumer</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.007426116762889592</v>
+        <v>0.004728369970085883</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.48</v>
       </c>
       <c r="F26" t="n">
-        <v>0.53</v>
+        <v>0.004720927622391452</v>
       </c>
     </row>
     <row r="27">
@@ -1128,17 +1128,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>createAddress</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.005150474672549961</v>
+        <v>0.03862566573541859</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09999999999999999</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.007080884352209908</v>
       </c>
     </row>
     <row r="28">
@@ -1161,10 +1161,10 @@
         <v>0.007711915962154031</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.01730972989451714</v>
       </c>
     </row>
     <row r="29">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>getCOID</t>
+          <t>createAddress</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.005150474672549961</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.004720927622391452</v>
       </c>
     </row>
     <row r="30">
@@ -1206,17 +1206,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>insertCostumer</t>
+          <t>getCOID</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.004735835819938897</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08571428571428572</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.004720927622391452</v>
       </c>
     </row>
     <row r="31">
@@ -1232,17 +1232,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>insertCostumer</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.03862566573541859</v>
+        <v>0.004735835819938897</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2045454545454545</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.004720927622391452</v>
       </c>
     </row>
     <row r="32">
@@ -1265,10 +1265,10 @@
         <v>0.004728369970085883</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0821917808219178</v>
+        <v>0.72</v>
       </c>
       <c r="F32" t="n">
-        <v>0.72</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="33">
@@ -1291,10 +1291,10 @@
         <v>0.3073288116324779</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3013698630136986</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="34">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.004720927622391452</v>
       </c>
     </row>
     <row r="35">
@@ -1343,10 +1343,10 @@
         <v>0.3073288116324779</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3013698630136986</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="36">
@@ -1369,10 +1369,10 @@
         <v>0.006637496877317059</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.72</v>
       </c>
       <c r="F36" t="n">
-        <v>0.72</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="37">
@@ -1395,10 +1395,10 @@
         <v>0.007080884352209908</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1184210526315789</v>
+        <v>0.95</v>
       </c>
       <c r="F37" t="n">
-        <v>0.95</v>
+        <v>0.004720927622391452</v>
       </c>
     </row>
     <row r="38">
@@ -1421,10 +1421,10 @@
         <v>0.01130628267269495</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1285714285714286</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="39">
@@ -1447,10 +1447,10 @@
         <v>0.007092047074358675</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1232876712328767</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.004720927622391452</v>
       </c>
     </row>
     <row r="40">
@@ -1473,10 +1473,10 @@
         <v>0.004728369970085883</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0821917808219178</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.2918963240121821</v>
       </c>
     </row>
     <row r="41">
@@ -1499,10 +1499,10 @@
         <v>0.3049651345282051</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2602739726027397</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.004720927622391452</v>
       </c>
     </row>
     <row r="42">
@@ -1525,10 +1525,10 @@
         <v>0.008499009169052349</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1276595744680851</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.004720927622391452</v>
       </c>
     </row>
     <row r="43">
@@ -1551,10 +1551,10 @@
         <v>0.007389525325146402</v>
       </c>
       <c r="E43" t="n">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.004720927622391452</v>
       </c>
     </row>
   </sheetData>
